--- a/数据整理/stocks/港股/00880-澳博控股.xlsx
+++ b/数据整理/stocks/港股/00880-澳博控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.57</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8.35</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>66.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.90</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002443</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>35.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>002443</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -744,15 +834,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.80</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.71</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00880-澳博控股.xlsx
+++ b/数据整理/stocks/港股/00880-澳博控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00880-澳博控股.xlsx
+++ b/数据整理/stocks/港股/00880-澳博控股.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.79</v>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.31</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00880-澳博控股.xlsx
+++ b/数据整理/stocks/港股/00880-澳博控股.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.79</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1235,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.31</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00880-澳博控股.xlsx
+++ b/数据整理/stocks/港股/00880-澳博控股.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001837</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1885</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0568</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.33</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.90</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5736</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -713,188 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0568</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9602</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002443</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深龙头精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1030</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007151</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深聚瑞混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,7 +839,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1091,36 +869,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>66.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>77.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>2.5736</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1129,36 +907,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>87.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0184</t>
+          <t>1.0568</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1172,96 +1102,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.31</v>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00880-澳博控股.xlsx
+++ b/数据整理/stocks/港股/00880-澳博控股.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.79</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.31</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>010377</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>广发价值核心混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>1.3894</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>010378</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>广发价值核心混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0184</t>
+          <t>0.2494</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -737,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1730</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +830,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
